--- a/data/landings/cdfw/public/fish_bulletins/raw/fb159/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb159/raw/Table21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb159/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb159/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA5A597-6074-F745-A0FF-A17326DFC893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26413C46-2736-4242-B1BE-94782E671B8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="3">
         <v>78252760</v>
